--- a/simon.xlsx
+++ b/simon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,21 +456,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Mohsen Kabirian</t>
-        </is>
+      <c r="A2" t="n">
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>y</t>
+          <t>n</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.4791393183358499</v>
+        <v>0.5404317211302951</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.0975609756097561</v>
       </c>
     </row>
     <row r="3">
@@ -492,20 +490,36 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5404317211302951</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0975609756097561</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Mohsen Kabirian</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>y</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>0.4791393183358499</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.1666666666666667</v>
       </c>
     </row>
